--- a/informes/GFPI-F-147_Formato_bitácora_etapa_productiva - V4.xlsx
+++ b/informes/GFPI-F-147_Formato_bitácora_etapa_productiva - V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mclopez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91F1544-E17C-4BCE-9BD0-370E38F6F079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E07D0-076F-4D4F-84BF-11C97BD9943E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="5" r:id="rId1"/>
@@ -23,12 +23,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="195">
   <si>
     <t>Código: 
 GFPI-F-147</t>
@@ -70,6 +81,50 @@
     <t xml:space="preserve">1. Generalidades </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLASIFICACIÓN DE LA INFORMACIÓN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Marque con una equis (X) la clasificación del documento según los lineamientos establecidos en la GOR-G-015 Guía Etiquetado de Información, que puede ser consultada en la herramienta de gestión del SIGA 
+Importante: solo se debe clasificar la información cuando se diligencie el formato, por si el formato vacío no contiende información por ende no se etiqueta.</t>
+    </r>
+  </si>
+  <si>
+    <t>a) El formato tiene como objetivo que la persona con rol de aprendiz registre en forma periódica las actividades realizadas durante la etapa productiva, según el plan de trabajo concertado entre las partes.</t>
+  </si>
+  <si>
+    <t>b) Este formato está directamente relacionado con la GFPI-G-040 Guía de desarrollo etapa productiva.</t>
+  </si>
+  <si>
+    <t>c) La persona con rol de aprendiz esla responsable de diligenciar el presente formato.</t>
+  </si>
+  <si>
+    <t>d) Este formato, una vez diligenciado y firmado por las partes intervinientes, debe ser entregado a la coordinación académica en formato físico o digital según las indicaciones brindadas por esta.</t>
+  </si>
+  <si>
+    <t>e) Solo imprimir el formato en caso de ser requerido.</t>
+  </si>
+  <si>
+    <t>f) La coordinación académica del centro de formación es quien determina el espacio para el almacenamiento o custodia del documento.</t>
+  </si>
+  <si>
+    <t>g) En caso de considerarse pertinente la coordinación de formación salvaguardará el formato.</t>
+  </si>
+  <si>
+    <t>h) Este documento evidencia la ejecución de la etapa productiva en el período relacionado y será  retroalimentado por la persona con rol de instructor de seguimiento a etapa productiva asignado por el centro de formación.</t>
+  </si>
+  <si>
     <t>2. Instrucciones para diligenciar las casillas</t>
   </si>
   <si>
@@ -82,39 +137,81 @@
     <t>TENER EN CUENTA</t>
   </si>
   <si>
+    <t>Nombre de la persona con rol de  aprendiz</t>
+  </si>
+  <si>
     <t>Registre su nombre completo</t>
   </si>
   <si>
+    <t>Tipo de documento de identificación</t>
+  </si>
+  <si>
+    <t>Indique el tipo de documento de identidad de la persona con rol de aprendiz (ej. CC, TI, etc.).</t>
+  </si>
+  <si>
     <t>Número de identificación</t>
   </si>
   <si>
+    <t>Registre su número de documento de identificación (Documento de identificación de la persona con rol de aprendiz)</t>
+  </si>
+  <si>
     <t>Teléfono de contacto</t>
   </si>
   <si>
+    <t>Registre su teléfono fijo o celular de contacto</t>
+  </si>
+  <si>
     <t>Correo electrónico institucional</t>
   </si>
   <si>
+    <t xml:space="preserve">Registre el correo electrónico institucional SENA </t>
+  </si>
+  <si>
+    <t>En caso de no tener correo electrónico institucional, por favor registre el correo electrónico personal</t>
+  </si>
+  <si>
     <t>Correo electrónico personal</t>
   </si>
   <si>
     <t>Registre el correo electrónico personal</t>
   </si>
   <si>
+    <t>En caso de no tener correo electrónico personal, por favor registre "No aplica".</t>
+  </si>
+  <si>
+    <t>Número de  grupo</t>
+  </si>
+  <si>
     <t>Registre el número del grupo en el que se encuentra matriculado según el programa de formación.</t>
   </si>
   <si>
     <t>Programa de formación</t>
   </si>
   <si>
+    <t>Registre el nombre del programa de formación. Ej: Técnico en asistencia adminstrativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al momento de registrar el nombre del programa de formación que está ejecutando, relacionar si es de nivel de formación auxiliar, operario, técnico o tecnológico </t>
+  </si>
+  <si>
     <t>Nombre de la empresa, ente u organización donde está realizando la etapa productiva</t>
   </si>
   <si>
+    <t xml:space="preserve">Relacione el nombre de la  empresa, ente u organización  donde está realizando la etapa productiva; si está realizando la etapa productiva por medio de  la alternativa de proyecto productivo o monitoria, diligencie el nombre del SENA </t>
+  </si>
+  <si>
     <t>NIT</t>
   </si>
   <si>
+    <t>Registre el Número de Identificación Tributaria-NIT de la empresa, ente u organización donde está realizando la etapa productiva, para mejor identificación de la misma</t>
+  </si>
+  <si>
     <t>Bitácora  N°</t>
   </si>
   <si>
+    <t>Seleccione según la lista desplegable el número de la bitácora según el avance de ejecución de la etapa productiva y de conformidad con la periodicidad en los tiempos de entrega</t>
+  </si>
+  <si>
     <t>Período a reportar</t>
   </si>
   <si>
@@ -130,15 +227,139 @@
     <t xml:space="preserve">Cargo del Ente Coformador </t>
   </si>
   <si>
+    <t>Registre el cargo del ente coformador, jefe inmediato, responsable o supervisor encargado de hacer acompañamiento a la ejecución de su etapa productiva</t>
+  </si>
+  <si>
+    <t>Registre el teléfono del ente coformador, jefe inmediato, responsable o supervisor encargado de hacer acompañamiento a la ejecución de su etapa productiva</t>
+  </si>
+  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
+    <t>Registre el correo electrónico del ente coformador, jefe inmediato, responsable o supervisor de la empresa encargado de hacer acompañamiento a la ejecución de su etapa productiva</t>
+  </si>
+  <si>
     <t>Nombre de la persona con rol de instructor</t>
   </si>
   <si>
+    <t>Registre el nombre de la persona con rol de instructor de seguimiento encargado de hacer acompañamiento a la ejecución de su etapa productiva</t>
+  </si>
+  <si>
+    <t>Registre el correo electrónico de la persona con rol de instructor de seguimiento encargado de hacer acompañamiento a la ejecución de su etapa productiva</t>
+  </si>
+  <si>
     <t>Seleccione con una "X" el tipo  y subtipo de alternativa de etapa productiva que está realizando</t>
   </si>
   <si>
+    <r>
+      <t>Seleccione alguna de las alternativas de etapa productiva determinadas por el Reglamento del Aprendiz vigente: 
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proyecto Productivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proyecto Productivo, Sena - Empresa, Sena Proveedor Sena, Producción de Centros,Proyecto productivo bajo enfoque empresarial o de investigación, desarrollo e innovación I+D+i y Proyectos Ruta Emprendedora SENA, Proyecto productivo prácticas en la economia popular y/o campesina, Proyecto productivo  a través de convocatorias SENNOVA.
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contrato vínculo formativo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Apoyo a una unidad productiva familiar, De apoyo a una institución estatal nacional, territorial, o a una ONG, o a una entidad sin ánimo de lucro, Asesoría a pymes,Vinculo formativo  prácticas en la economia popular y/o campesina )- Resolución 623 de 2020, emanada por el Mintrabajo, pasantía se denomina Vínculo Formativo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*Vínculo laboral o contractual: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vínculo laboral (regular) o Vínculo laboral por medio de prácticas en la economia popular y/o campesina
+ *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Contrato de aprendizaje: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Contrato de aprendizaje (regular),contrato de aprendizaje a través de convocatorias SENNOVA ,contrato de aprendizaje por medio de prácticas en la economia popular y/o campesina 
+ *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Monitoría:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Monitoría (regular), Monitoría a través de convocatorias SENNOVA, otra
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Con apoyo de la persona con rol de instructor de segumiento identifique bajo que alternativa y subtipo esta ejecutando la etapa productiva. Una vez identificada,marque con una X, según corresponda. Para ello referise al Acuerdo 009- Reglamento del Aprendiz SENA y al GFPI-G-040-Guía para el desarrollo de la etapa productiva</t>
+  </si>
+  <si>
     <t>Descripción de la actividad</t>
   </si>
   <si>
@@ -148,12 +369,24 @@
     <t>Fecha de inicio</t>
   </si>
   <si>
+    <t>Registre la fecha de inicio de la actividad descrita en el cuadro anterior "DESCRIPCIÓN  DE LA ACTIVIDAD"</t>
+  </si>
+  <si>
     <t>Fecha de fin</t>
   </si>
   <si>
+    <t>Registre la fecha fin de la actividad descrita en el cuadro "DESCRIPCIÓN  DE LA ACTIVIDAD"</t>
+  </si>
+  <si>
     <t>Evidencia de cumplimiento</t>
   </si>
   <si>
+    <t>Detalle el soporte sobre el cumplimiento de la actividad (Ej.: Informe, correo, videos, fotografías, etc.). Indique si corresponde a un documento, proceso, producto, entregable u otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En esta casilla, determinar si laevidencia de cumplimiento a que tipo de documento corresponde, indicando si este es un informe de tipo excel, aplicativo, reporte, etc. Por ejemplo, si en la descripción de actividades, casilla 31, se indica que realizó un informe acerca del estado actual del mercado; en la casilla G31 indicar que el informe se realizó en documento Excel </t>
+  </si>
+  <si>
     <t>Observaciones, inasistencias, dificultades presentadas y/o comentarios realizados por las personas con rol de: aprendiz y/o jefe inmediato</t>
   </si>
   <si>
@@ -163,21 +396,58 @@
     <t>¿La persona con rol de aprendiz se encuentra afiliado a la ARL?</t>
   </si>
   <si>
+    <t>Indicar si como persona con rol de aprendiz se encuentra  afiliado a la ARL por parte de la empresa, ente u organización donde está realizando la etapa productiva</t>
+  </si>
+  <si>
+    <t>Para corroborar que se encuentre afiliado a la ARL, debe verificar en el certificado de afiliación el periodo de tiempo por el cual  es válida dicha afiliación y este debe coincidir con el tiempo de ejecución  de la etapa productiva en la entidad correspondiente. Para lo cual es necesario preguntar a la persona con rol de jefe inmediato/responsable o ente coformador, el nombre de la entidad a la cual fue afiliado y generar el certificado correspondiente</t>
+  </si>
+  <si>
     <t>Indique el nivel de riesgo actual</t>
   </si>
   <si>
+    <t>Indicar el nivel de riesgo al cual fue afiliado. Es necesario preguntar a la persona con rol de jefe inmediato/responsable o ente coformador</t>
+  </si>
+  <si>
+    <t>Acontinuación se relacionan los niveles de riesgo:
+Clase de Riesgo |: Financieras, trabajos de oficina, administrativos, centros educativos, restaurantes.
+Clase de Riesgo II: Algunos procesos manufactureros como fabricación de tapetes, tejidos, confecciones y flores artificiales, almacén por departamentos, algunas labores agrícolas.
+Clase de Riesgo III: Procesos manufactureros como fabricación de agujas, alcoholes, alimentos, automotores y artículos de cuero
+Clase de Riesgo IV: Procesos manufactureros como fabricación de aceites, cervezas, vidrios, procesos de galvanización, transportes y servicios de vigilancia privada.
+Clase de Riesgo V: Areneras, manejo de asbesto, bomberos, manejos de explosivos, construcción y explotación petrolera.
+Para complementar la información anterior, se relaciona el enlace de la comunidad aprendices con las preguntas frecuentes respecto a la ARL https://comunidades.netlab-sena.net/faq/etapa-productiva/arl-en-la-etapa-productiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acontinuación se relacionan los niveles de riesgo:
+Clase de Riesgo |: Financieras, trabajos de oficina, administrativos, centros educativos, restaurantes.
+Clase de Riesgo II: Algunos procesos manufactureros como fabricación de tapetes, tejidos, confecciones y flores artificiales, almacén por departamentos, algunas labores agrícolas.
+Clase de Riesgo III: Procesos manufactureros como fabricación de agujas, alcoholes, alimentos, automotores y artículos de cuero
+Clase de Riesgo IV: Procesos manufactureros como fabricación de aceites, cervezas, vidrios, procesos de galvanización, transportes y servicios de vigilancia privada.
+Clase de Riesgo V: Areneras, manejo de asbesto, bomberos, manejos de explosivos, construcción y explotación petrolera.
+Para complementar la información anterior, se relaciona el enlace de la comunidad aprendices con las preguntas frecuentes respecto a la ARL https://comunidades.netlab-sena.net/faq/etapa-productiva/arl-en-la-etapa-productiva
+</t>
+  </si>
+  <si>
     <t>¿El nivel de riesgo de la ARL corresponde a las actividades que desarrolla la persona con rol de aprendiz en la empresa?</t>
   </si>
   <si>
     <t>En el certificado de afiliación revisar el nivel de riesgo e indicar si ha sido clasificado correctamente según las actividades que realizará en la empresa, entidad u organización.</t>
   </si>
   <si>
+    <t>Para complementar la información anterior, se relaciona el enlace de la comunidad aprendices con las preguntas frecuentes respecto a la ARL https://comunidades.netlab-sena.net/faq/etapa-productiva/arl-en-la-etapa-productiva</t>
+  </si>
+  <si>
     <t>La persona con rol de aprendiz cuenta con los elementos de protección personal (EPP), requeridos para desarrollar su etapa productiva?</t>
   </si>
   <si>
+    <t xml:space="preserve">Indicar si como persona con rol de aprendiz cuenta con los elementos de protección personal necesarios para realizar las actividades que desarrolla en la empresa, entidad u organización. Para ello, escriba: Si, No o No Aplica según corresponda </t>
+  </si>
+  <si>
     <t>Firma de la persona con rol de aprendiz</t>
   </si>
   <si>
+    <t>Firma manuscrita o digital, según sea el caso o si las circunstancias lo ameritan y sea consensuada esta situación entre las partes, teniendo en cuenta la legalidad de este documento como soporte para la aprobación de la bitácora</t>
+  </si>
+  <si>
     <t>Fecha entrega bitácora</t>
   </si>
   <si>
@@ -187,10 +457,19 @@
     <t>Firma de la persona con rol de instructor de seguimiento</t>
   </si>
   <si>
+    <t>Firma manuscrita o digital, según sea el caso o si las circunstancias lo ameritan y sea consensuada esta situación entre las partes, teniendo en cuenta la legalidad de este documento como soporte para la aprobación de la etapa productiva</t>
+  </si>
+  <si>
     <t>Firma de la persona con rol de jefe inmediato (Si es del caso)</t>
   </si>
   <si>
     <t xml:space="preserve">Anexo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espacio es opcional para relacionar evidencia fotográfica de las actividades desarrolladas </t>
+  </si>
+  <si>
+    <t>No aplica documentos de la empresa u otros aspectos que se consideren sensibles</t>
   </si>
   <si>
     <t xml:space="preserve">NOMBRE DEL FORMATO </t>
@@ -544,108 +823,6 @@
   </si>
   <si>
     <t>firma el instructor que recibe la bitácora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pública </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLASIFICACIÓN DE LA INFORMACIÓN </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CLASIFICACIÓN DE LA INFORMACIÓN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Marque con una equis (X)en el recuadro despues de consultar con su ente coformador si la informacion que aquí se registrara sera publica que corresponde a un nivel de baja confidencialidad, publica clasificada, nivel medio y publica reservada nivel de alta cofidencialidad. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Indique el tipo de documento de identidad  es decir:  tarjeta de identidad o cedula de ciudadania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este documento se diseña para que el aprendiz registre en èl,  las evidencias de las actividades planeadas con las partes al inicio de su Etapa practica, el cual debe ser diligenciado de manera periodica cada 15 dias, y debera entregarse a su instructor de seguimiento acorde a lo establecido.  El formato contiene unas instrucciones que puede consultar en la pestaña correspondiente. </t>
-  </si>
-  <si>
-    <t>Número de identificación del aprendiz</t>
-  </si>
-  <si>
-    <t>Registre su teléfono fijo o celular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registre el correo electrónico institucional SENA si no tiene coloque no aplica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registre el nombre del programa de formación. Ej: Técnico en asistencia adminstrativa es importante que relacione el nivel de formación auxiliar, operario, técnico o tecnológico </t>
-  </si>
-  <si>
-    <t>Relacione el nombre de la  empresa, ente u organización  donde está realizando la etapa productiva</t>
-  </si>
-  <si>
-    <t>Registre el Número de Identificación Tributaria-NIT de la empresa,solicitelo en la empresa donde esta realizando su practica. Si no existe escriba no aplica N.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleccione según la lista desplegable el número de la bitácora correspondiente, verifique la continuidad de la fecha con la anterior bitacora . </t>
-  </si>
-  <si>
-    <t>Registre el cargo del ente coformador,</t>
-  </si>
-  <si>
-    <t>Registre el teléfono del ente coformador</t>
-  </si>
-  <si>
-    <t>Registre el correo electrónico del ente coformador</t>
-  </si>
-  <si>
-    <t>Registre el nombre  su  instructor de seguimiento asignado por el SENA para  hacerle  acompañamiento a la ejecución de su etapa productiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registre el correo electrónico de su  instructor de seguimiento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Con apoyo de su instructor de segumiento identifique bajo que alternativa y subtipo esta ejecutando la etapa productiva y marque con una X, según corresponda. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registre la fecha de inicio de la actividad descrita esta debera corresponder a la fecha del periodo de la Bitacora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registre la fecha fin de la actividad descrita correspondiente al periodo de la bitacora  </t>
-  </si>
-  <si>
-    <t>escriba el soporte,que demuestra el cumplimiento de la actividad que esta reportando  por ejemplo  Informe en excell, correos, videos, fotografías.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicar  si se encuentra  afiliado a la ARL por parte de la empresa, preguntar al ente coformador, recuerde que los 6 meses de practica deben estar cubiertos por la ARL </t>
-  </si>
-  <si>
-    <t>Indicar el nivel de riesgo al cual fue afiliado, todos los programas del CBC estan clasificados en un nivel  2 a excepcion de Construccion de edificaciones  y MANTENIMIENTO E INSTALACION DE SISTEMAS SOLARES FOTOVOLTAICOS que estan en un  nivel 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El  aprendiz debera informar si cuenta con los elementos de protección personal necesarios para realizar las actividades que desarrolla en la empresa, entidad u organización. Para ello, escriba: Si, No o No Aplica según corresponda </t>
-  </si>
-  <si>
-    <t>Firma manuscrita o digital, según sea el caso, esta sera consensuada</t>
-  </si>
-  <si>
-    <t>Firma manuscrita o digital, según sea el caso o si las circunstancias lo ameritan y sea consensuada esta situación entre las partes</t>
-  </si>
-  <si>
-    <t>Firma manuscrita o digital, según sea el caso o si las circunstancias lo ameritan y sea consensuada esta situación entre las partes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en este espacio se deben colocar unicamente las  fotográfas  que dan cuenta de las evidencias de las actividades registradas. No aplica para documentos. </t>
   </si>
 </sst>
 </file>
@@ -723,6 +900,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -899,12 +1082,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2023,7 +2200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2047,698 +2224,665 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2842,14 +2986,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3736,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H52"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,10 +3954,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="7"/>
@@ -3764,10 +3965,10 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="7"/>
@@ -3775,519 +3976,632 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="185"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="182"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="176" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="178"/>
+      <c r="B7" s="177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="179"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
-        <v>150</v>
+      <c r="B8" s="74" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="186"/>
+      <c r="E8" s="187"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="189"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="190"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="190" t="s">
+      <c r="B10" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="193"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="195"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="196"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="172" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
+      <c r="B12" s="173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="176"/>
       <c r="F12" s="1"/>
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-    </row>
-    <row r="14" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="205" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="207"/>
-    </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="195"/>
-    </row>
-    <row r="16" spans="2:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="196"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
-    </row>
-    <row r="17" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+    </row>
+    <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="208"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="199" t="s">
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="211"/>
+    </row>
+    <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="200"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="169" t="s">
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="211"/>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="169"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="202"/>
-    </row>
-    <row r="19" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="170" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="202"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="171" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
-    </row>
-    <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="168" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
-    </row>
-    <row r="22" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="169" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
-    </row>
-    <row r="23" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="169" t="s">
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="217"/>
+    </row>
+    <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="211"/>
+    </row>
+    <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="209" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="211"/>
+    </row>
+    <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="212" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+    </row>
+    <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="173" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="176"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="202"/>
-    </row>
-    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="169" t="s">
+      <c r="C22" s="195"/>
+      <c r="D22" s="195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="196"/>
+    </row>
+    <row r="23" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="197"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="199"/>
+    </row>
+    <row r="24" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="202"/>
-    </row>
-    <row r="25" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="72" t="s">
+      <c r="C24" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="169" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="202"/>
-    </row>
-    <row r="26" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="72" t="s">
+      <c r="D24" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="169" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="201"/>
-      <c r="E26" s="202"/>
-    </row>
-    <row r="27" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B27" s="72" t="s">
+      <c r="E24" s="201"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="169" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="201"/>
-      <c r="E27" s="202"/>
-    </row>
-    <row r="28" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="72" t="s">
+      <c r="C25" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="169" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="201"/>
-      <c r="E28" s="202"/>
-    </row>
-    <row r="29" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="72" t="s">
+      <c r="D25" s="202"/>
+      <c r="E25" s="203"/>
+    </row>
+    <row r="26" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="169" t="s">
+      <c r="C26" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="202"/>
-    </row>
-    <row r="30" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="72" t="s">
+      <c r="D26" s="202"/>
+      <c r="E26" s="203"/>
+    </row>
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="169" t="s">
+      <c r="C27" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="201"/>
-      <c r="E30" s="202"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="72" t="s">
+      <c r="D27" s="202"/>
+      <c r="E27" s="203"/>
+    </row>
+    <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="169" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="201"/>
-      <c r="E31" s="202"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="169" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="201"/>
-      <c r="E32" s="202"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="72" t="s">
+      <c r="C28" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="169" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="201"/>
-      <c r="E33" s="202"/>
-    </row>
-    <row r="34" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="72" t="s">
+      <c r="D28" s="202"/>
+      <c r="E28" s="203"/>
+    </row>
+    <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="169" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="201"/>
-      <c r="E34" s="202"/>
-    </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="169" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="201"/>
-      <c r="E35" s="202"/>
-    </row>
-    <row r="36" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B36" s="72" t="s">
+      <c r="C29" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="169" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="201"/>
-      <c r="E36" s="202"/>
-    </row>
-    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="72" t="s">
+      <c r="D29" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="169" t="s">
+      <c r="E29" s="203" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="201"/>
-      <c r="E37" s="202"/>
-    </row>
-    <row r="38" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="72" t="s">
+      <c r="C30" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="169" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="201"/>
-      <c r="E38" s="202"/>
-    </row>
-    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="72" t="s">
+      <c r="D30" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="169" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="201"/>
-      <c r="E39" s="202"/>
-    </row>
-    <row r="40" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="72" t="s">
+      <c r="E30" s="203" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="169" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="201"/>
-      <c r="E40" s="202"/>
-    </row>
-    <row r="41" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="72" t="s">
+      <c r="C31" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="169" t="s">
+      <c r="D31" s="202"/>
+      <c r="E31" s="203"/>
+    </row>
+    <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="201"/>
-      <c r="E41" s="202"/>
-    </row>
-    <row r="42" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="72" t="s">
+      <c r="C32" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="169" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="201"/>
-      <c r="E42" s="202"/>
-    </row>
-    <row r="43" spans="2:5" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="72" t="s">
+      <c r="D32" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="278" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="201"/>
-      <c r="E43" s="202"/>
-    </row>
-    <row r="44" spans="2:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="72" t="s">
+      <c r="E32" s="203" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B33" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="278" t="s">
+      <c r="C33" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="201"/>
-      <c r="E44" s="202"/>
-    </row>
-    <row r="45" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B45" s="72" t="s">
+      <c r="D33" s="202"/>
+      <c r="E33" s="203"/>
+    </row>
+    <row r="34" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B34" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="201"/>
-      <c r="E45" s="202"/>
+      <c r="C34" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="202"/>
+      <c r="E34" s="203"/>
+    </row>
+    <row r="35" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B35" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="202"/>
+      <c r="E35" s="203"/>
+    </row>
+    <row r="36" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="202"/>
+      <c r="E36" s="203"/>
+    </row>
+    <row r="37" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B37" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="202"/>
+      <c r="E37" s="203"/>
+    </row>
+    <row r="38" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B38" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="202"/>
+      <c r="E38" s="203"/>
+    </row>
+    <row r="39" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B39" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="202"/>
+      <c r="E39" s="203"/>
+    </row>
+    <row r="40" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B40" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="202"/>
+      <c r="E40" s="203"/>
+    </row>
+    <row r="41" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B41" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="202"/>
+      <c r="E41" s="203"/>
+    </row>
+    <row r="42" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B42" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="202"/>
+      <c r="E42" s="203"/>
+    </row>
+    <row r="43" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="203" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="202"/>
+      <c r="E44" s="203"/>
+    </row>
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="202"/>
+      <c r="E45" s="203"/>
     </row>
     <row r="46" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="278" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="201"/>
-      <c r="E46" s="202"/>
-    </row>
-    <row r="47" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="278" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="201"/>
-      <c r="E47" s="202"/>
+      <c r="B46" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="202"/>
+      <c r="E46" s="203"/>
+    </row>
+    <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="202" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="203" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="201"/>
-      <c r="E48" s="202"/>
-    </row>
-    <row r="49" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="169" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="201"/>
-      <c r="E49" s="202"/>
-    </row>
-    <row r="50" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="279" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="280" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="203"/>
-      <c r="E50" s="204"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
+      <c r="B48" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="202"/>
+      <c r="E48" s="203"/>
+    </row>
+    <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="202" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="203" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="339.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="202" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="203" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="203" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B52" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="202"/>
+      <c r="E52" s="203"/>
+    </row>
+    <row r="53" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B53" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="202"/>
+      <c r="E53" s="203"/>
+    </row>
+    <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="202"/>
+      <c r="E54" s="203"/>
+    </row>
+    <row r="55" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B55" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="202"/>
+      <c r="E55" s="203"/>
+    </row>
+    <row r="56" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B56" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="202"/>
+      <c r="E56" s="203"/>
+    </row>
+    <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="205" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="D50:E50"/>
+  <mergeCells count="54">
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -4309,7 +4623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74A078B-FDD5-4F89-B4CB-7471575D0D0F}">
   <dimension ref="B1:Z78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -4334,12 +4648,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="126"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="158" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10"/>
@@ -4363,12 +4677,12 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="159"/>
+      <c r="B2" s="165"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="160" t="s">
+      <c r="G2" s="166" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10"/>
@@ -4392,14 +4706,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -4421,14 +4735,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="182"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -4450,14 +4764,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="176" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="178"/>
+      <c r="B5" s="177" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="179"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -4479,14 +4793,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="182"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -4508,14 +4822,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="179"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -4537,18 +4851,18 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="2:26" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163" t="s">
+      <c r="C8" s="168"/>
+      <c r="D8" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="163" t="s">
+      <c r="E8" s="168"/>
+      <c r="F8" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="164"/>
+      <c r="G8" s="170"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -4597,32 +4911,32 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="2:26" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="140" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="142" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="144" t="s">
-        <v>21</v>
+      <c r="B10" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="149" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="121"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="154"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -4670,16 +4984,16 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
+      <c r="B13" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -4699,12 +5013,12 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="225"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="267"/>
+      <c r="F14" s="268"/>
+      <c r="G14" s="269"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -4750,20 +5064,20 @@
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:26" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="133"/>
+      <c r="B16" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="133"/>
+      <c r="D16" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="139"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="K16" s="18"/>
@@ -4776,15 +5090,15 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="226"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="137" t="s">
-        <v>61</v>
+      <c r="B17" s="270"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="143" t="s">
+        <v>106</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -4823,20 +5137,20 @@
       <c r="Y18" s="15"/>
     </row>
     <row r="19" spans="2:26" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="124" t="s">
+      <c r="B19" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="133"/>
+      <c r="D19" s="130" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="128" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="129" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="125"/>
+      <c r="F19" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="131"/>
       <c r="H19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -4853,12 +5167,12 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="226"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="228"/>
-      <c r="G20" s="229"/>
+      <c r="B20" s="270"/>
+      <c r="C20" s="271"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="272"/>
+      <c r="G20" s="273"/>
       <c r="H20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -4900,14 +5214,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="214" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="216"/>
+      <c r="B22" s="224" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="225"/>
+      <c r="D22" s="225"/>
+      <c r="E22" s="225"/>
+      <c r="F22" s="225"/>
+      <c r="G22" s="226"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -4929,16 +5243,16 @@
       <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="165" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="228"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="166" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="228"/>
-      <c r="G23" s="229"/>
+      <c r="B23" s="171" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="272"/>
+      <c r="D23" s="271"/>
+      <c r="E23" s="172" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="272"/>
+      <c r="G23" s="273"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -4988,7 +5302,7 @@
     <row r="25" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="26" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="25"/>
@@ -5014,20 +5328,20 @@
       <c r="Y25" s="24"/>
     </row>
     <row r="26" spans="2:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="150"/>
+      <c r="B26" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="156" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="156" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="156"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
@@ -5049,15 +5363,15 @@
     </row>
     <row r="27" spans="2:26" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="46"/>
-      <c r="C27" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="78"/>
+      <c r="C27" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="84"/>
       <c r="E27" s="52"/>
-      <c r="F27" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="79"/>
+      <c r="F27" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="85"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="20"/>
@@ -5078,14 +5392,14 @@
     <row r="28" spans="2:26" s="13" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="47"/>
       <c r="C28" s="22" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="53"/>
-      <c r="F28" s="217" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="218"/>
+      <c r="F28" s="227" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="228"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -5106,14 +5420,14 @@
     <row r="29" spans="2:26" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48"/>
       <c r="C29" s="22" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="217"/>
-      <c r="G29" s="218"/>
+        <v>118</v>
+      </c>
+      <c r="F29" s="227"/>
+      <c r="G29" s="228"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -5132,18 +5446,18 @@
       <c r="Z29" s="14"/>
     </row>
     <row r="30" spans="2:26" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="154" t="s">
-        <v>74</v>
+      <c r="B30" s="160" t="s">
+        <v>119</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="54" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="G30" s="42"/>
       <c r="H30" s="18"/>
@@ -5166,14 +5480,14 @@
     <row r="31" spans="2:26" s="13" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="49"/>
       <c r="C31" s="22" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="47"/>
-      <c r="F31" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="82"/>
+      <c r="F31" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="88"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="19"/>
@@ -5197,14 +5511,14 @@
     <row r="32" spans="2:26" s="13" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="49"/>
       <c r="C32" s="22" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="51"/>
-      <c r="F32" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="78"/>
+      <c r="F32" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="84"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19"/>
@@ -5227,15 +5541,15 @@
     </row>
     <row r="33" spans="2:26" s="13" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="50"/>
-      <c r="C33" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="83" t="s">
-        <v>83</v>
+      <c r="C33" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="161"/>
+      <c r="E33" s="89" t="s">
+        <v>128</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="G33" s="41"/>
       <c r="H33" s="18"/>
@@ -5260,15 +5574,15 @@
     </row>
     <row r="34" spans="2:26" s="13" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="51"/>
-      <c r="C34" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="156"/>
+      <c r="C34" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="162"/>
       <c r="E34" s="55"/>
-      <c r="F34" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="82"/>
+      <c r="F34" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="88"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19"/>
@@ -5291,19 +5605,19 @@
     </row>
     <row r="35" spans="2:26" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="48" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="D35" s="42"/>
-      <c r="E35" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="88"/>
+      <c r="E35" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="94"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19"/>
@@ -5326,15 +5640,15 @@
     </row>
     <row r="36" spans="2:26" s="13" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="50"/>
-      <c r="C36" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="82"/>
+      <c r="C36" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="88"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="19"/>
@@ -5377,23 +5691,23 @@
       <c r="Z37" s="14"/>
     </row>
     <row r="38" spans="2:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="97" t="s">
-        <v>98</v>
+      <c r="B38" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="102" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="103" t="s">
+        <v>143</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -5415,19 +5729,19 @@
       <c r="Y38" s="18"/>
     </row>
     <row r="39" spans="2:26" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="100" t="s">
-        <v>102</v>
+      <c r="B39" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>147</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -5449,12 +5763,12 @@
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="230"/>
-      <c r="C40" s="231"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="234"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
+      <c r="B40" s="274"/>
+      <c r="C40" s="275"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="280"/>
+      <c r="F40" s="280"/>
+      <c r="G40" s="280"/>
       <c r="H40" s="20"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -5475,12 +5789,12 @@
       <c r="Y40" s="18"/>
     </row>
     <row r="41" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="232"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="235"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="235"/>
-      <c r="G41" s="235"/>
+      <c r="B41" s="276"/>
+      <c r="C41" s="277"/>
+      <c r="D41" s="281"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
       <c r="H41" s="20"/>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -5501,12 +5815,12 @@
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="230"/>
-      <c r="C42" s="231"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="236"/>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
+      <c r="B42" s="274"/>
+      <c r="C42" s="275"/>
+      <c r="D42" s="280"/>
+      <c r="E42" s="282"/>
+      <c r="F42" s="280"/>
+      <c r="G42" s="280"/>
       <c r="H42" s="20"/>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
@@ -5527,12 +5841,12 @@
       <c r="Y42" s="18"/>
     </row>
     <row r="43" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="232"/>
-      <c r="C43" s="233"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
-      <c r="F43" s="235"/>
-      <c r="G43" s="235"/>
+      <c r="B43" s="276"/>
+      <c r="C43" s="277"/>
+      <c r="D43" s="281"/>
+      <c r="E43" s="281"/>
+      <c r="F43" s="281"/>
+      <c r="G43" s="281"/>
       <c r="H43" s="20"/>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
@@ -5553,12 +5867,12 @@
       <c r="Y43" s="18"/>
     </row>
     <row r="44" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="237"/>
-      <c r="C44" s="238"/>
-      <c r="D44" s="236"/>
-      <c r="E44" s="236"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="91"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="279"/>
+      <c r="D44" s="282"/>
+      <c r="E44" s="282"/>
+      <c r="F44" s="280"/>
+      <c r="G44" s="97"/>
       <c r="H44" s="20"/>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
@@ -5579,12 +5893,12 @@
       <c r="Y44" s="18"/>
     </row>
     <row r="45" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="232"/>
-      <c r="C45" s="233"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="235"/>
-      <c r="G45" s="89"/>
+      <c r="B45" s="276"/>
+      <c r="C45" s="277"/>
+      <c r="D45" s="281"/>
+      <c r="E45" s="281"/>
+      <c r="F45" s="281"/>
+      <c r="G45" s="95"/>
       <c r="H45" s="20"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
@@ -5605,12 +5919,12 @@
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="237"/>
-      <c r="C46" s="238"/>
-      <c r="D46" s="236"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="282"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="280"/>
+      <c r="G46" s="280"/>
       <c r="H46" s="20"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
@@ -5631,12 +5945,12 @@
       <c r="Y46" s="18"/>
     </row>
     <row r="47" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="232"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="235"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="235"/>
-      <c r="G47" s="235"/>
+      <c r="B47" s="276"/>
+      <c r="C47" s="277"/>
+      <c r="D47" s="281"/>
+      <c r="E47" s="281"/>
+      <c r="F47" s="281"/>
+      <c r="G47" s="281"/>
       <c r="H47" s="20"/>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
@@ -5657,12 +5971,12 @@
       <c r="Y47" s="18"/>
     </row>
     <row r="48" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="237"/>
-      <c r="C48" s="238"/>
-      <c r="D48" s="236"/>
-      <c r="E48" s="236"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="234"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="279"/>
+      <c r="D48" s="282"/>
+      <c r="E48" s="282"/>
+      <c r="F48" s="280"/>
+      <c r="G48" s="280"/>
       <c r="H48" s="20"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -5683,12 +5997,12 @@
       <c r="Y48" s="18"/>
     </row>
     <row r="49" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="232"/>
-      <c r="C49" s="233"/>
-      <c r="D49" s="235"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="235"/>
-      <c r="G49" s="235"/>
+      <c r="B49" s="276"/>
+      <c r="C49" s="277"/>
+      <c r="D49" s="281"/>
+      <c r="E49" s="281"/>
+      <c r="F49" s="281"/>
+      <c r="G49" s="281"/>
       <c r="H49" s="20"/>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
@@ -5709,12 +6023,12 @@
       <c r="Y49" s="18"/>
     </row>
     <row r="50" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="237"/>
-      <c r="C50" s="238"/>
-      <c r="D50" s="236"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="234"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="279"/>
+      <c r="D50" s="282"/>
+      <c r="E50" s="282"/>
+      <c r="F50" s="280"/>
+      <c r="G50" s="280"/>
       <c r="H50" s="20"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -5735,12 +6049,12 @@
       <c r="Y50" s="18"/>
     </row>
     <row r="51" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="232"/>
-      <c r="C51" s="233"/>
-      <c r="D51" s="235"/>
-      <c r="E51" s="235"/>
-      <c r="F51" s="235"/>
-      <c r="G51" s="235"/>
+      <c r="B51" s="276"/>
+      <c r="C51" s="277"/>
+      <c r="D51" s="281"/>
+      <c r="E51" s="281"/>
+      <c r="F51" s="281"/>
+      <c r="G51" s="281"/>
       <c r="H51" s="20"/>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
@@ -5761,12 +6075,12 @@
       <c r="Y51" s="18"/>
     </row>
     <row r="52" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="90"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="236"/>
-      <c r="E52" s="236"/>
-      <c r="F52" s="234"/>
-      <c r="G52" s="234"/>
+      <c r="D52" s="282"/>
+      <c r="E52" s="282"/>
+      <c r="F52" s="280"/>
+      <c r="G52" s="280"/>
       <c r="H52" s="20"/>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
@@ -5787,12 +6101,12 @@
       <c r="Y52" s="18"/>
     </row>
     <row r="53" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="243"/>
-      <c r="E53" s="243"/>
-      <c r="F53" s="235"/>
-      <c r="G53" s="235"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="283"/>
+      <c r="E53" s="283"/>
+      <c r="F53" s="281"/>
+      <c r="G53" s="281"/>
       <c r="H53" s="20"/>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
@@ -5839,14 +6153,14 @@
       <c r="Y54" s="18"/>
     </row>
     <row r="55" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="103"/>
-      <c r="C55" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="106"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="112"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
@@ -5867,14 +6181,14 @@
       <c r="Y55" s="23"/>
     </row>
     <row r="56" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="220" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="221"/>
-      <c r="D56" s="221"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="222"/>
+      <c r="B56" s="230" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="232"/>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
@@ -5895,14 +6209,14 @@
       <c r="Y56" s="23"/>
     </row>
     <row r="57" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="107" t="s">
-        <v>105</v>
+      <c r="B57" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="29"/>
-      <c r="G57" s="108"/>
+      <c r="G57" s="114"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
@@ -5923,14 +6237,14 @@
       <c r="Y57" s="30"/>
     </row>
     <row r="58" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="109" t="s">
-        <v>106</v>
+      <c r="B58" s="115" t="s">
+        <v>151</v>
       </c>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
-      <c r="G58" s="110"/>
+      <c r="G58" s="116"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
@@ -5951,14 +6265,14 @@
       <c r="Y58" s="30"/>
     </row>
     <row r="59" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="109" t="s">
-        <v>107</v>
+      <c r="B59" s="115" t="s">
+        <v>152</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
-      <c r="G59" s="110"/>
+      <c r="G59" s="116"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
@@ -5979,14 +6293,14 @@
       <c r="Y59" s="30"/>
     </row>
     <row r="60" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="109" t="s">
-        <v>108</v>
+      <c r="B60" s="115" t="s">
+        <v>153</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
-      <c r="G60" s="110"/>
+      <c r="G60" s="116"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
@@ -6007,23 +6321,23 @@
       <c r="Y60" s="30"/>
     </row>
     <row r="61" spans="2:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="116" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" s="118" t="s">
-        <v>110</v>
-      </c>
-      <c r="G61" s="120" t="s">
-        <v>111</v>
+      <c r="B61" s="122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="126" t="s">
+        <v>156</v>
       </c>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
@@ -6046,16 +6360,16 @@
       <c r="Z61" s="18"/>
     </row>
     <row r="62" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="113"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="115"/>
+      <c r="B62" s="117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="118" t="s">
+        <v>158</v>
+      </c>
+      <c r="D62" s="119"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="121"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
@@ -6106,7 +6420,7 @@
     <row r="64" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="31"/>
       <c r="D64" s="37" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
@@ -6159,9 +6473,9 @@
       <c r="Z65" s="18"/>
     </row>
     <row r="66" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="241"/>
-      <c r="C66" s="241"/>
-      <c r="D66" s="241"/>
+      <c r="B66" s="284"/>
+      <c r="C66" s="284"/>
+      <c r="D66" s="284"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
@@ -6186,11 +6500,11 @@
       <c r="Z66" s="18"/>
     </row>
     <row r="67" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
-      <c r="D67" s="242"/>
+      <c r="B67" s="285"/>
+      <c r="C67" s="285"/>
+      <c r="D67" s="285"/>
       <c r="F67" s="34" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -6214,13 +6528,13 @@
       <c r="Z67" s="18"/>
     </row>
     <row r="68" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="219" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="219"/>
-      <c r="D68" s="219"/>
+      <c r="B68" s="229" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="229"/>
+      <c r="D68" s="229"/>
       <c r="F68" s="19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -6270,9 +6584,9 @@
       <c r="Z69" s="18"/>
     </row>
     <row r="70" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="239"/>
-      <c r="C70" s="239"/>
-      <c r="D70" s="239"/>
+      <c r="B70" s="286"/>
+      <c r="C70" s="286"/>
+      <c r="D70" s="286"/>
       <c r="F70" s="20"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -6296,11 +6610,11 @@
       <c r="Z70" s="18"/>
     </row>
     <row r="71" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="240"/>
-      <c r="C71" s="240"/>
-      <c r="D71" s="240"/>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
+      <c r="B71" s="287"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="F71" s="288"/>
+      <c r="G71" s="288"/>
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
@@ -6324,13 +6638,13 @@
     <row r="72" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
       <c r="C72" s="35" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="F72" s="219" t="s">
-        <v>116</v>
-      </c>
-      <c r="G72" s="219"/>
+      <c r="F72" s="229" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="229"/>
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" s="18"/>
@@ -6353,7 +6667,7 @@
     </row>
     <row r="73" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="32" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -6408,14 +6722,14 @@
       <c r="Z74" s="18"/>
     </row>
     <row r="75" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="208" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="209"/>
-      <c r="D75" s="209"/>
-      <c r="E75" s="209"/>
-      <c r="F75" s="209"/>
-      <c r="G75" s="210"/>
+      <c r="B75" s="218" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="219"/>
+      <c r="D75" s="219"/>
+      <c r="E75" s="219"/>
+      <c r="F75" s="219"/>
+      <c r="G75" s="220"/>
       <c r="H75" s="10"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -6437,14 +6751,14 @@
       <c r="Z75" s="9"/>
     </row>
     <row r="76" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="211" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="212"/>
-      <c r="D76" s="212"/>
-      <c r="E76" s="212"/>
-      <c r="F76" s="212"/>
-      <c r="G76" s="213"/>
+      <c r="B76" s="221" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="222"/>
+      <c r="D76" s="222"/>
+      <c r="E76" s="222"/>
+      <c r="F76" s="222"/>
+      <c r="G76" s="223"/>
       <c r="H76" s="10"/>
       <c r="I76" s="39"/>
       <c r="J76" s="9"/>
@@ -6466,12 +6780,12 @@
       <c r="Z76" s="9"/>
     </row>
     <row r="77" spans="2:26" s="10" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="121"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="123"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="128"/>
+      <c r="D77" s="128"/>
+      <c r="E77" s="128"/>
+      <c r="F77" s="128"/>
+      <c r="G77" s="129"/>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H78" s="10"/>
@@ -6496,23 +6810,25 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
     <mergeCell ref="B70:D71"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="B66:D67"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
     <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="E44:E45"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
@@ -6532,8 +6848,6 @@
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
     <mergeCell ref="B22:G22"/>
@@ -6660,124 +6974,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
-      <c r="T1" s="244"/>
-      <c r="U1" s="244" t="s">
-        <v>121</v>
-      </c>
-      <c r="V1" s="244"/>
-      <c r="W1" s="244"/>
-      <c r="X1" s="244"/>
+      <c r="A1" s="233" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="233"/>
+      <c r="U1" s="233" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="244"/>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="252" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
+      <c r="A2" s="233"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="233"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="241" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="249" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="250"/>
-      <c r="J4" s="250"/>
-      <c r="K4" s="250"/>
-      <c r="L4" s="250"/>
-      <c r="M4" s="251"/>
-      <c r="N4" s="249" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="250"/>
-      <c r="P4" s="250"/>
-      <c r="Q4" s="250"/>
-      <c r="R4" s="250"/>
-      <c r="S4" s="250"/>
-      <c r="T4" s="250"/>
-      <c r="U4" s="250"/>
-      <c r="V4" s="250"/>
-      <c r="W4" s="250"/>
-      <c r="X4" s="251"/>
+      <c r="A4" s="238" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="238" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="239"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="239"/>
+      <c r="V4" s="239"/>
+      <c r="W4" s="239"/>
+      <c r="X4" s="240"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="246"/>
-      <c r="B5" s="247"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="248"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="247"/>
-      <c r="P5" s="247"/>
-      <c r="Q5" s="247"/>
-      <c r="R5" s="247"/>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="247"/>
-      <c r="X5" s="248"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="237"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="236"/>
+      <c r="P5" s="236"/>
+      <c r="Q5" s="236"/>
+      <c r="R5" s="236"/>
+      <c r="S5" s="236"/>
+      <c r="T5" s="236"/>
+      <c r="U5" s="236"/>
+      <c r="V5" s="236"/>
+      <c r="W5" s="236"/>
+      <c r="X5" s="237"/>
     </row>
     <row r="6" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -6806,66 +7120,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="245" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="245"/>
-      <c r="N7" s="245"/>
-      <c r="O7" s="245"/>
-      <c r="P7" s="245" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="245"/>
-      <c r="R7" s="245"/>
-      <c r="S7" s="245"/>
-      <c r="T7" s="245"/>
-      <c r="U7" s="245"/>
-      <c r="V7" s="245"/>
-      <c r="W7" s="245"/>
-      <c r="X7" s="245"/>
+      <c r="A7" s="234" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="234" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="234"/>
+      <c r="P7" s="234" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="234"/>
+      <c r="R7" s="234"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="234"/>
+      <c r="U7" s="234"/>
+      <c r="V7" s="234"/>
+      <c r="W7" s="234"/>
+      <c r="X7" s="234"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="254"/>
-      <c r="B8" s="254"/>
-      <c r="C8" s="254"/>
-      <c r="D8" s="254"/>
-      <c r="E8" s="254"/>
-      <c r="F8" s="254"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="254"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="255" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="256"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="255" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q8" s="256"/>
-      <c r="R8" s="256"/>
-      <c r="S8" s="256"/>
-      <c r="T8" s="256"/>
-      <c r="U8" s="256"/>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="257"/>
+      <c r="A8" s="243"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="244" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="245"/>
+      <c r="L8" s="245"/>
+      <c r="M8" s="245"/>
+      <c r="N8" s="245"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="244" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="245"/>
+      <c r="R8" s="245"/>
+      <c r="S8" s="245"/>
+      <c r="T8" s="245"/>
+      <c r="U8" s="245"/>
+      <c r="V8" s="245"/>
+      <c r="W8" s="245"/>
+      <c r="X8" s="246"/>
     </row>
     <row r="9" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -6894,66 +7208,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="258" t="s">
+      <c r="A10" s="247" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="247"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="247"/>
+      <c r="K10" s="247"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="247"/>
+      <c r="N10" s="247"/>
+      <c r="O10" s="247"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="247"/>
+      <c r="R10" s="247"/>
+      <c r="S10" s="247"/>
+      <c r="T10" s="247"/>
+      <c r="U10" s="247"/>
+      <c r="V10" s="247"/>
+      <c r="W10" s="247"/>
+      <c r="X10" s="247"/>
+    </row>
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="258"/>
-      <c r="C10" s="258"/>
-      <c r="D10" s="258"/>
-      <c r="E10" s="258"/>
-      <c r="F10" s="258"/>
-      <c r="G10" s="258"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="258"/>
-      <c r="J10" s="258"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="258"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="258"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="258"/>
-      <c r="W10" s="258"/>
-      <c r="X10" s="258"/>
-    </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="259" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="259"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="259"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="259" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" s="259"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="259"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="259"/>
-      <c r="S11" s="259" t="s">
-        <v>131</v>
-      </c>
-      <c r="T11" s="259"/>
-      <c r="U11" s="259"/>
-      <c r="V11" s="259"/>
-      <c r="W11" s="259"/>
-      <c r="X11" s="259"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="248" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="248"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="248"/>
+      <c r="L11" s="248"/>
+      <c r="M11" s="248" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="248"/>
+      <c r="O11" s="248"/>
+      <c r="P11" s="248"/>
+      <c r="Q11" s="248"/>
+      <c r="R11" s="248"/>
+      <c r="S11" s="248" t="s">
+        <v>176</v>
+      </c>
+      <c r="T11" s="248"/>
+      <c r="U11" s="248"/>
+      <c r="V11" s="248"/>
+      <c r="W11" s="248"/>
+      <c r="X11" s="248"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -6982,66 +7296,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="245" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="245"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="245"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="245"/>
-      <c r="G13" s="245"/>
-      <c r="H13" s="245"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="245" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="245"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="245"/>
-      <c r="N13" s="245"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="245" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="245"/>
-      <c r="R13" s="245"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="245"/>
-      <c r="U13" s="245"/>
-      <c r="V13" s="245"/>
-      <c r="W13" s="245"/>
-      <c r="X13" s="245"/>
+      <c r="A13" s="234" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="234"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="234" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="234"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="234"/>
+      <c r="N13" s="234"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="234" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="234"/>
+      <c r="R13" s="234"/>
+      <c r="S13" s="234"/>
+      <c r="T13" s="234"/>
+      <c r="U13" s="234"/>
+      <c r="V13" s="234"/>
+      <c r="W13" s="234"/>
+      <c r="X13" s="234"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="254"/>
-      <c r="B14" s="254"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="255" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="255" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="256"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="256"/>
-      <c r="U14" s="256"/>
-      <c r="V14" s="256"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="257"/>
+      <c r="A14" s="243"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="244" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="245"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="245"/>
+      <c r="N14" s="245"/>
+      <c r="O14" s="246"/>
+      <c r="P14" s="244" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="245"/>
+      <c r="R14" s="245"/>
+      <c r="S14" s="245"/>
+      <c r="T14" s="245"/>
+      <c r="U14" s="245"/>
+      <c r="V14" s="245"/>
+      <c r="W14" s="245"/>
+      <c r="X14" s="246"/>
     </row>
     <row r="15" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -7070,162 +7384,162 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="265" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="265"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="265"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="266" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="265" t="s">
-        <v>137</v>
-      </c>
-      <c r="O16" s="265"/>
-      <c r="P16" s="265"/>
-      <c r="Q16" s="265"/>
-      <c r="R16" s="265"/>
-      <c r="S16" s="265"/>
-      <c r="T16" s="267" t="s">
-        <v>138</v>
-      </c>
-      <c r="U16" s="267"/>
-      <c r="V16" s="267"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="267"/>
+      <c r="A16" s="254" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="255" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="255"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="255"/>
+      <c r="N16" s="254" t="s">
+        <v>182</v>
+      </c>
+      <c r="O16" s="254"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="254"/>
+      <c r="R16" s="254"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="256" t="s">
+        <v>183</v>
+      </c>
+      <c r="U16" s="256"/>
+      <c r="V16" s="256"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="260" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="252"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="252"/>
-      <c r="G17" s="252"/>
-      <c r="H17" s="252"/>
-      <c r="I17" s="261"/>
-      <c r="J17" s="268" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="270"/>
-      <c r="N17" s="260" t="s">
-        <v>141</v>
-      </c>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
-      <c r="R17" s="252"/>
-      <c r="S17" s="261"/>
-      <c r="T17" s="260" t="s">
-        <v>142</v>
-      </c>
-      <c r="U17" s="252"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="252"/>
-      <c r="X17" s="261"/>
+      <c r="A17" s="249" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="241"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="257" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="258"/>
+      <c r="L17" s="258"/>
+      <c r="M17" s="259"/>
+      <c r="N17" s="249" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" s="241"/>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="241"/>
+      <c r="R17" s="241"/>
+      <c r="S17" s="250"/>
+      <c r="T17" s="249" t="s">
+        <v>187</v>
+      </c>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="241"/>
+      <c r="X17" s="250"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="262"/>
-      <c r="B18" s="263"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="263"/>
-      <c r="H18" s="263"/>
-      <c r="I18" s="264"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="272"/>
-      <c r="L18" s="272"/>
-      <c r="M18" s="273"/>
-      <c r="N18" s="262"/>
-      <c r="O18" s="263"/>
-      <c r="P18" s="263"/>
-      <c r="Q18" s="263"/>
-      <c r="R18" s="263"/>
-      <c r="S18" s="264"/>
-      <c r="T18" s="262"/>
-      <c r="U18" s="263"/>
-      <c r="V18" s="263"/>
-      <c r="W18" s="263"/>
-      <c r="X18" s="264"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="252"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="253"/>
+      <c r="J18" s="260"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="261"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="252"/>
+      <c r="P18" s="252"/>
+      <c r="Q18" s="252"/>
+      <c r="R18" s="252"/>
+      <c r="S18" s="253"/>
+      <c r="T18" s="251"/>
+      <c r="U18" s="252"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="252"/>
+      <c r="X18" s="253"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="277" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="277"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
+      <c r="A21" s="266" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="266"/>
+      <c r="C21" s="266"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="266"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="277" t="s">
-        <v>144</v>
-      </c>
-      <c r="K21" s="277"/>
-      <c r="L21" s="277"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="277"/>
-      <c r="O21" s="277"/>
-      <c r="P21" s="277"/>
+      <c r="J21" s="266" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="266"/>
+      <c r="L21" s="266"/>
+      <c r="M21" s="266"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="266"/>
+      <c r="P21" s="266"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="277" t="s">
-        <v>145</v>
-      </c>
-      <c r="S21" s="277"/>
-      <c r="T21" s="277"/>
-      <c r="U21" s="277"/>
-      <c r="V21" s="277"/>
-      <c r="W21" s="277"/>
-      <c r="X21" s="277"/>
+      <c r="R21" s="266" t="s">
+        <v>190</v>
+      </c>
+      <c r="S21" s="266"/>
+      <c r="T21" s="266"/>
+      <c r="U21" s="266"/>
+      <c r="V21" s="266"/>
+      <c r="W21" s="266"/>
+      <c r="X21" s="266"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P23" s="274" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="274"/>
-      <c r="R23" s="274"/>
-      <c r="S23" s="274"/>
-      <c r="T23" s="274"/>
-      <c r="U23" s="275" t="s">
-        <v>147</v>
-      </c>
-      <c r="V23" s="275"/>
-      <c r="W23" s="275"/>
-      <c r="X23" s="275"/>
+      <c r="P23" s="263" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q23" s="263"/>
+      <c r="R23" s="263"/>
+      <c r="S23" s="263"/>
+      <c r="T23" s="263"/>
+      <c r="U23" s="264" t="s">
+        <v>192</v>
+      </c>
+      <c r="V23" s="264"/>
+      <c r="W23" s="264"/>
+      <c r="X23" s="264"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P24" s="274" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q24" s="274"/>
-      <c r="R24" s="274"/>
-      <c r="S24" s="274"/>
-      <c r="T24" s="274"/>
-      <c r="U24" s="276" t="s">
-        <v>149</v>
-      </c>
-      <c r="V24" s="276"/>
-      <c r="W24" s="276"/>
-      <c r="X24" s="276"/>
+      <c r="P24" s="263" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q24" s="263"/>
+      <c r="R24" s="263"/>
+      <c r="S24" s="263"/>
+      <c r="T24" s="263"/>
+      <c r="U24" s="265" t="s">
+        <v>194</v>
+      </c>
+      <c r="V24" s="265"/>
+      <c r="W24" s="265"/>
+      <c r="X24" s="265"/>
     </row>
   </sheetData>
   <mergeCells count="40">
